--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll3-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dll3-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch3</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H2">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I2">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.847498666666667</v>
+        <v>7.413580666666667</v>
       </c>
       <c r="N2">
-        <v>14.542496</v>
+        <v>22.240742</v>
       </c>
       <c r="O2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="P2">
-        <v>0.03400671694637637</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="Q2">
-        <v>1.428958583623111</v>
+        <v>1.585656172083556</v>
       </c>
       <c r="R2">
-        <v>12.860627252608</v>
+        <v>14.270905548752</v>
       </c>
       <c r="S2">
-        <v>0.01970753164349113</v>
+        <v>0.05108888817597561</v>
       </c>
       <c r="T2">
-        <v>0.01970753164349113</v>
+        <v>0.05108888817597561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H3">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I3">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="P3">
-        <v>0.01141456784970118</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="Q3">
-        <v>0.4796389117155556</v>
+        <v>0.3480113999644445</v>
       </c>
       <c r="R3">
-        <v>4.31675020544</v>
+        <v>3.13210259968</v>
       </c>
       <c r="S3">
-        <v>0.006614956611350651</v>
+        <v>0.0112127179963522</v>
       </c>
       <c r="T3">
-        <v>0.006614956611350651</v>
+        <v>0.0112127179963522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2947826666666666</v>
+        <v>0.2138853333333333</v>
       </c>
       <c r="H4">
-        <v>0.8843479999999999</v>
+        <v>0.641656</v>
       </c>
       <c r="I4">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5795187954946383</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,208 +682,22 @@
         <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="P4">
-        <v>0.9545787152039225</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="Q4">
-        <v>40.11129480641955</v>
+        <v>29.10353501145245</v>
       </c>
       <c r="R4">
-        <v>361.001653257776</v>
+        <v>261.931815103072</v>
       </c>
       <c r="S4">
-        <v>0.5531963072397965</v>
+        <v>0.9376983938276722</v>
       </c>
       <c r="T4">
-        <v>0.5531963072397965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.641656</v>
-      </c>
-      <c r="I5">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J5">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.847498666666667</v>
-      </c>
-      <c r="N5">
-        <v>14.542496</v>
-      </c>
-      <c r="O5">
-        <v>0.03400671694637637</v>
-      </c>
-      <c r="P5">
-        <v>0.03400671694637637</v>
-      </c>
-      <c r="Q5">
-        <v>1.036808868152889</v>
-      </c>
-      <c r="R5">
-        <v>9.331279813376</v>
-      </c>
-      <c r="S5">
-        <v>0.01429918530288523</v>
-      </c>
-      <c r="T5">
-        <v>0.01429918530288523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.641656</v>
-      </c>
-      <c r="I6">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J6">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.627093333333334</v>
-      </c>
-      <c r="N6">
-        <v>4.88128</v>
-      </c>
-      <c r="O6">
-        <v>0.01141456784970118</v>
-      </c>
-      <c r="P6">
-        <v>0.01141456784970118</v>
-      </c>
-      <c r="Q6">
-        <v>0.3480113999644445</v>
-      </c>
-      <c r="R6">
-        <v>3.13210259968</v>
-      </c>
-      <c r="S6">
-        <v>0.00479961123835053</v>
-      </c>
-      <c r="T6">
-        <v>0.00479961123835053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.2138853333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.641656</v>
-      </c>
-      <c r="I7">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="J7">
-        <v>0.4204812045053617</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>136.0707373333333</v>
-      </c>
-      <c r="N7">
-        <v>408.212212</v>
-      </c>
-      <c r="O7">
-        <v>0.9545787152039225</v>
-      </c>
-      <c r="P7">
-        <v>0.9545787152039225</v>
-      </c>
-      <c r="Q7">
-        <v>29.10353501145245</v>
-      </c>
-      <c r="R7">
-        <v>261.931815103072</v>
-      </c>
-      <c r="S7">
-        <v>0.401382407964126</v>
-      </c>
-      <c r="T7">
-        <v>0.401382407964126</v>
+        <v>0.9376983938276722</v>
       </c>
     </row>
   </sheetData>
